--- a/Zameen_Numbers.xlsx
+++ b/Zameen_Numbers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Zameen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zameen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>+92-3357770003</t>
+          <t>+92-3335556301</t>
         </is>
       </c>
     </row>
@@ -452,14 +452,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>+92-3018120914</t>
+          <t>+92-3152112685</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>+92-3312333614</t>
+          <t>+92-3135407970</t>
         </is>
       </c>
     </row>

--- a/Zameen_Numbers.xlsx
+++ b/Zameen_Numbers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Zameen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Zameen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,41 +428,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>+92-3335556301</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>+92-3000239029</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+92-3152112685</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>+92-3135407970</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
